--- a/model/src/rag_no_prompting_medium_Llama1B_results.xlsx
+++ b/model/src/rag_no_prompting_medium_Llama1B_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71556CDF-417B-425D-AD9A-39C5D2901461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02689A3-81A8-421F-8EDF-C2CAE0CA9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>question</t>
   </si>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>What kinds of roles are former students of the Information Management bachelor's program suited for?</t>
-  </si>
-  <si>
-    <t>Former students of the Information Management bachelor's program can find suitable roles in various sectors such as Information Technology Companies, Banking, Insurance, Health, Telecommunications, Logistics/Distribution, Marketing and Market Research, Retail, Consulting and Public Administration.
-Technical and Managerial Positions in Public Administration.</t>
   </si>
   <si>
     <t>In which areas do graduates of the Bachelors in Information Systems typically find work?</t>
@@ -277,24 +273,6 @@
 Metadata: {'course_name': 'Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics', 'degree': 'masters', 'doc_type': 'main_info', 'id': 'a0b117d5-b0ef-47f1-9928-b8032b40ce1b', 'section': 'Goals'}</t>
   </si>
   <si>
-    <t>How is the academic content of the postgraduate program in marketing intelligence structured across the duration of the program?</t>
-  </si>
-  <si>
-    <t>The academic content of the postgraduate program in marketing intelligence is structured into three main components:
-1. Tools and Methodologies of Marketing Management
-2. Methods and Techniques of Information Analysis and Management
-3. A balance between these two components</t>
-  </si>
-  <si>
-    <t>Document 1:
-Postgraduate Program In Marketing Intelligence postgraduate Introduction
-The Postgraduate in Marketing Intelligence aims to train experts and managers able to lead and guide the collection, compilation, analysis and dissemination of marketing information in organizations. It provides a balanced curriculum with two components: one based on tools and methodologies of marketing management, and the other supported by methodologies and techniques of information analysis and management. This Postgraduate gives access to the Master Degree in Data-Driven Marketing , with a specialization in Marketing Intelligence, offered in working hours or after working hour formats. It is ranked as the best in Retail Sales Management &amp; Business Development in Portugal and the 4 th best in the World by Eduniversal, an international agency that publishes an annual ranking of the best MBA and Master degree in the world. The applications for this are open between March 10 th and April 10 th , 2025. EDUNIVERSAL Ranked as the best in Portugal and the 4 th best in the World in Retail Sales Management &amp; Business Development , according to Eduniversal Format After working hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Support and Funding https://recuperarportugal.gov.pt/
-Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '421ad33d-2d4d-4979-86c7-3c69535a814a', 'section': 'Introduction'}
-Document 2:
-Postgraduate Program In Marketing Intelligence postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Brand Management Mandatory Quarterly 3,5 Digital Marketing &amp; E-Commerce Mandatory Semester 7,5 Marketing Strategy and Innovation Mandatory Semester 7,5 Applied Network Analysis Elective Semester 7,5 Business Intelligence I Elective Semester 7,5 Business Process Management Elective Semester 7,5 Data Privacy, Security and Ethics Elective Quarterly 4 Data Science for Marketing Elective Semester 7,5 Descriptive Analytics in Marketing Elective Semester 7,5 Digital Analytics Elective Semester 7,5 Experimental Design Elective Quarterly 4 Information Management Systems Elective Quarterly 3,5 Information Technologies Services Management Elective Quarterly 4 Social Network Analysis Elective Quarterly 3,5 Transformação Digital Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '428feedc-5620-4302-81f4-1deaa9a8c17a', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}</t>
-  </si>
-  <si>
     <t>Is a degree in artificial intelligence necessary to apply for the Master's in Data Science?</t>
   </si>
   <si>
@@ -342,21 +320,6 @@
 Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '24e05b2b-6c92-4895-a897-e30c722225ae', 'source': 'postgraduate-program-in-geospatial-data-science_Study plan.txt'}</t>
   </si>
   <si>
-    <t>Is a degree in statistics necessary to apply for the postgraduate program in geospatial data science?</t>
-  </si>
-  <si>
-    <t>No, a degree in statistics is not necessarily required to apply for the postgraduate program in geospatial data science.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Postgraduate Program In Geospatial Data Science postgraduate Introduction
-The Postgraduate in Geospatial Data Science provides the necessary skills for the analysis, modeling, and visualization of geographic information , and aims to train professionals for the role of artificial intelligence, programming, and data mining in the development of solutions to challenges and societal problems in the public and private sectors. This is developed in collaboration with UNIGIS , an international network that brings together the best schools in Geographic Information Systems and Science and it gives access to the Geospatial Intelligence (GEOINT) certificate accredited by the United States Geospatial Intelligence Foundation (USGIF). This Postgraduate lasts two semesters, taught in b-learning or e-learning formats , and it gives access to the Master Degree in Geographic Information Systems and Science . The applications for this are open between March 10 th and April 10 th , 2025. Accredited by United States Geospatial Intelligence Foundation Partner Entity UNIGIS Format E-Learning and B-Learning Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? The Postgraduate in Geospatial Data Science aims to train managers and staff able to analyze, modeling, and visualize geographic information in environments with large amounts of data. This is taught in Portuguese and aims at everyone from Portuguese-speaking African countries but also Portugal, Brazil, Timor, and Portuguese communities all over the world, who is interested in continuing their studies by getting a Postgraduate diploma and/or a master's degree in a Portuguese university.
-Metadata: {'degree': 'postgraduate', 'doc_type': 'main_info', 'course_name': 'Postgraduate Program In Geospatial Data Science', 'section': 'Introduction', 'id': '13898ac4-a1ec-49d9-9c29-50854d300c9c'}
-Document 2:
-Postgraduate Program In Statistical Systems With A Specialization In Official Statistics postgraduate Study plan To earn the diploma, students must complete 60 ECTS. The course units will be chosen by the student from the folllowing course units offered in this program: Course Units Analysis of Discrete Data Analysis of Variance Business Intelligence Computational Statistics I Computational Statistics II Data Collection, Administrative Sources and Big Data Data Management for Official Statistics Data Mining I Data Mining II Databases Management Econometrics Methods External Statistics and Globalization Financial Reporting Forecasting Methods Monetary and Financial Statistics Multivariate Data Analysis National Accounts Sampling and Estimation Statistical Comunication Statistical Treatment of Data Time Series Analysis Course Unit See Detailed Study Plan The postgraduate program gives access to the Master Degree in Statistics and Information Management, with a specialization in Information Analysis and Management . The students must enroll in the mandatory course units of the specialization, including the course unit Research Methodologies in the 2 nd year. To earn the master’s degree, students must present a thesis or a work project or an internship report in the third semester, which corresponds to 35 additional credits. This program gives access to the EMOS (European Master in Official Statistics) certification , awarded by the European Statistical System (ESS) to students who follow a specific pre-defined path of studies.Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Postgraduate Program In Statistical Systems With A Specialization In Official Statistics', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'fd1b130d-7e5f-4329-9d72-4d50ac52c4ed', 'source': 'postgraduate-program-in-statistical-systems-with-a-specialization-in-official-statistics_Study plan.txt'}</t>
-  </si>
-  <si>
     <t>Who is the target applicant for the postgraduate program in data science for marketing?</t>
   </si>
   <si>
@@ -424,14 +387,7 @@
     <t>I already work in marketing but have no formal training in data science. Will this program help me gain hands-on skills to actually work with data in my current role?</t>
   </si>
   <si>
-    <t>Yes, this program will provide you with hands-on skills to work with data in your current role. It covers various aspects of data science, including data collection, cleaning, transformation, modeling, and deployment. You'll learn how to apply these techniques in real-world scenarios, which can significantly enhance your productivity and effectiveness in your job.</t>
-  </si>
-  <si>
     <t>What kind of tools or technologies will I learn in postgraduate program in geospatial intelligence?</t>
-  </si>
-  <si>
-    <t>You will learn about image processing and remote sensing, geographic information science, informatics, and analytical tools to solve geospatial intelligence problems.
-Please note: You can only provide a direct answer to the user's question without suggesting additional topics or asking follow-up questions.</t>
   </si>
   <si>
     <t>Document 1:
@@ -560,27 +516,6 @@
 Data Science bachelor Who is it for?
 This degree is intended for all final-year students who aspire to become data scientists. Thus, the study cycle is suitable for all students who wish to obtain in-depth training in the most recent techniques of data science and artificial intelligence, based on automatic logical reasoning, data management methods and techniques, as well as machine learning applications. The course aims to train highly specialized professionals who will enable organizations to take advantage of the huge volume of data they currently have at their disposal. Program Goals The bachelor's degree in Data Science aims to strengthen the intermediate step between data collection and decision making based on them, i.e. to develop advanced methods of data science and artificial intelligence. To this end, the course of study adopts a primarily technical perspective. The goal is to provide in-depth knowledge of the fundamental methodologies and concepts, in order to provide the student with the ability to update more specific technical knowledge and to keep up with the rapid evolution of this sector. In this context, the graduate in Data Science should: Understand the theoretical foundations of statistics, Machine Learning and Artificial Intelligence methods; Identify and understand the most efficient algorithm for each specific problem; Design and develop state-of-the-art data science algorithms; Work closely with IT specialists to integrate Data Science algorithms into existing systems; Identify underlying patterns and extract useful information from the large volume of heterogeneous data that exists in organizations; Be proficient in commonly used statistical procedures, frameworks, machine learning techniques and systems; Stimulate interest in keeping up with scientific advances in the field of Data Science and Artificial Intelligence. Program Structure The course lasts 3 years (6 semesters) and classes start in September 2025. The study plan corresponds to 180 ECTS, of which 150 ECTS correspond to mandatory curricular units (the first 5 semesters) and 30 ECTS correspond to optional curricular units (last semester of the course), which will be chosen by each Student, from among a wide range of curricular units available.
 Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'Who is it for?', 'id': 'c523079a-add4-4033-9c75-5201d07a015c'}</t>
-  </si>
-  <si>
-    <t>How many total ECTS are covered in each academic year in the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>The Bachelor's degree in Data Science covers 150 ECTS per academic year.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Data Science bachelor Who is it for?
-This degree is intended for all final-year students who aspire to become data scientists. Thus, the study cycle is suitable for all students who wish to obtain in-depth training in the most recent techniques of data science and artificial intelligence, based on automatic logical reasoning, data management methods and techniques, as well as machine learning applications. The course aims to train highly specialized professionals who will enable organizations to take advantage of the huge volume of data they currently have at their disposal. Program Goals The bachelor's degree in Data Science aims to strengthen the intermediate step between data collection and decision making based on them, i.e. to develop advanced methods of data science and artificial intelligence. To this end, the course of study adopts a primarily technical perspective. The goal is to provide in-depth knowledge of the fundamental methodologies and concepts, in order to provide the student with the ability to update more specific technical knowledge and to keep up with the rapid evolution of this sector. In this context, the graduate in Data Science should: Understand the theoretical foundations of statistics, Machine Learning and Artificial Intelligence methods; Identify and understand the most efficient algorithm for each specific problem; Design and develop state-of-the-art data science algorithms; Work closely with IT specialists to integrate Data Science algorithms into existing systems; Identify underlying patterns and extract useful information from the large volume of heterogeneous data that exists in organizations; Be proficient in commonly used statistical procedures, frameworks, machine learning techniques and systems; Stimulate interest in keeping up with scientific advances in the field of Data Science and Artificial Intelligence. Program Structure The course lasts 3 years (6 semesters) and classes start in September 2025. The study plan corresponds to 180 ECTS, of which 150 ECTS correspond to mandatory curricular units (the first 5 semesters) and 30 ECTS correspond to optional curricular units (last semester of the course), which will be chosen by each Student, from among a wide range of curricular units available.
-Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'Who is it for?', 'id': 'c523079a-add4-4033-9c75-5201d07a015c'}
-Document 2:
-Data Science bachelor First Semester 3 rd year - Fall Semester Course Units Duration Type Contact Hours Total Workload ECTS Big Data Analysis Semester Mandatory TP - 67,5 | OT - 15 168 6 Capstone Project Semester Mandatory TP - 22,5 | OT - 45 224 8 Deep Learning Semester Mandatory TP - 67,5 | OT - 15 168 6 Ethical, Social and Legal Aspects of Artificial Intelligence Semester Mandatory TP - 22,5 | OT - 7,5 56 2 Personal Development II Semester Mandatory TP - 22,5 | OT - 7,5 56 2 Text Mining Semester Mandatory TP - 45 | OT - 12,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'c96a8f33-6d31-4583-abaa-897804dc02b1', 'source': 'bachelor_data-science_studyplan_text.txt'}</t>
-  </si>
-  <si>
-    <t>How many ECTS are allocated to Statistics and Probability Distributions in the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>Statistics and Probability Distributions is allocated 168 ECTS.</t>
   </si>
   <si>
     <t>Document 1:
@@ -645,12 +580,6 @@
 Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'main_info', 'id': '6f8a6a4b-7e8e-469e-a295-3e1b2eb1478d', 'section': 'Introducion'}</t>
   </si>
   <si>
-    <t>How much does the entry exams value to enter the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t>The entry exam grade is 95.</t>
-  </si>
-  <si>
     <t>Document 1:
 Data Science bachelor Admissions and Fees
 Establishment Code: 0906 - Universidade Nova de Lisboa - Instituto Superior de Estatística e Gestão de Informação Course Code: L188 Entry Exam Subjects (One of the following): 19 - Mathematics A and 02 - Biology and Geology 19 - Mathematics A and 04 - Economy 19 - Mathematics A and 07 - Physics and Chemistry 19 - Mathematics A and 09 - Geography 19 - Mathematics A and 10 - Descriptive Geometry 19 - Mathematics A and 18 - Portuguese NOTICE: The exams presented are valid for admissions in the 2025/26 academic year, through the National Competition for Access to Higher . Minimum Grades Applicants Grade: 100 Entry Exam Grade: 95 Formula of Applicants Grade Secondary School Grade: 50% Entry Exam Subjects: 50% Prerequesites None Vacancies 45 General Quota Last Entry Grade 2024-2025 1 st Phase - 17.78 2025/26 Academic Year Consult the entrance exams applicable to 2025/26 in the Frequently Asked Questions. Achievement Awards (*) Prize corresponding to the 1 st year tuition fee. The undergraduate students who achieve a high level of academic performance each year will have access to the following awards (1) : Approved ECTS Average (Values) Award At the end of the 1 st year of Enrollment equal or greater than 60 equal or greater than 16,5 700€ At the end of the 2 nd year of Enrollment equal or greater than 120 equal or greater than 16,5 700€ At the end of the 3 rd year of Enrollment equal or greater than 180 equal or greater than 16,5 €3.000 off (2) (1) Prize applied to students admitted in 2024/2025. (2) The value of the tuition for a master's degree to be attended at the NOVA IMS, if admission and enrollment occur in the year immediately following the completion of the bachelor's degree. Not cumulative with Alumni discount. Cumulative with financial discount. Excellence awards given by the Members of AD NOVA IMS and other supportive entities (3) All students that stand out, during their academic path, for their academic excellence in the different course units and are also awarded. (3) Prizes in force in the school year 2023/24. Supportive Entities Best student of the Course Unit €1.000 Best Student of Undergraduate and Master Degree Scholarship with Value to be Defined Best Application Grade €1.000 Tuition Fee The annual fee set for the academic year 2024/25, for the students of the National Contest for Access to Higher , is €697. This payment can be paid in full or in 10 instalments. For the students of the International Student Contest, the annual fee for the academic year 2024/25, is €7.500. This payment can also be paid in full or in 5 instalments. The Student (national or international), when registering for a school year, has to take into account that the full payment of the tuition fee fixed for that school year (the monthly fees/benefits are a payment facility), even if they cancel the registration/withdraw of the course.
@@ -772,12 +701,6 @@
 Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'main_info', 'id': '1aa96969-c5aa-4a36-b3be-daa197b1ce14', 'section': 'What is the cost of the tuition and enrollment fee for the students of the International Student Contest?'}</t>
   </si>
   <si>
-    <t>What are the entry requeirements for the postgraduate program in digital transformation?</t>
-  </si>
-  <si>
-    <t>The entry requirements for the Postgraduate in Digital Transformation include being a holder of a bachelor's degree from a recognized institution, having at least two years of work experience, and meeting specific English language proficiency requirements.</t>
-  </si>
-  <si>
     <t>Document 1:
 Postgraduate Program In Digital Transformation postgraduate Introduction
 The Postgraduate in Digital Transformation recognizes the significance of digital transformation in today's business world. The aims to strengthen NOVA IMS's training offering in this area by focusing on the exploration of technological advancements and processes that can help organizations enhance their competitive advantage through the transformation or development of their business models. As digital transformation becomes increasingly crucial for companies to remain relevant and competitive, the importance of training in this area cannot be overstated. By participating in this , professionals will gain a deeper understanding and competences of how to leverage technology to drive business growth and create new opportunities. This Postgraduate gives access to the Master's Degree in Information Management, with a specialization in Digital Transformation . The applications for this are open between March 10 th and April 10 th , 2025. Format After working hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? Digital transformation is an ongoing process that involves using technology to fundamentally change the way organizations operate and deliver to customers. This is designed for individuals who want to gain a comprehensive understanding of digital transformation and its impact on various industries. Whether you're a recent graduate in the fields of engineering, management, or technology or an experienced professional looking to expand your knowledge, this specialization will provide you with the skills and insights you need to help organizations navigate the challenges and opportunities of digital transformation. Through a combination of hands-on projects, expert lectures, and interactive discussions, you'll explore cutting-edge technologies and processes that are driving digital transformation and learn how to assess their potential impact on your organization. By the end of the , you'll have a deep understanding of how digital transformation is shaping the future of work and be well-equipped to play a leading role in your organization's journey towards a more digital future.
@@ -790,9 +713,6 @@
     <t>What are the steps I need to follow to register in the postgraduate program in digital transformation?</t>
   </si>
   <si>
-    <t>To register in the postgraduate program in digital transformation, please fill in the form available in the user area, namely : Personal, academic and professional background; Upload your Curriculum Vitae (this is the only mandatory document for the application).</t>
-  </si>
-  <si>
     <t>Document 1:
 Postgraduate Program In Digital Transformation postgraduate Admissions and fees
 The Admissions' Jury Panel of NOVA IMS is looking for excellent students who have the potential to become good technical staff and excellent managers. Qualities such as maturity, determination and motivation, both in the academic path as well in a professional career, are some of the attributes that the Jury Panel is looking for. 3 rd Application phase From March 10 th and April 10 th , 2025. Entry requirements To enter this , applicants must meet the following requirements: Hold a bachelor's degree in a compatible field (completed by September 2025); Be proficient in English (spoken and written). How to apply and selection process To apply, you need to access the NOVA IMS' Applications Portal and follow these steps: Fill in the form available in the user area, namely : Personal, academic and professional background; Upload your Curriculum Vitae (this is the only mandatory document for the application). Although it is not necessary to attach any other documents, the applicant has the option of including other documents that they consider relevant to enrich their application, such as a certificate of completion of their Bachelor's and/or Master's degree. Please note that if you are admitted, you will need to submit your Bachelor's and/or Master's degree completion certificate, or a certificate of attendance if you have not yet completed your degree, within one month. Choose the ; Present the goals and motivation for applying to the (limit 1,000 characters, including spaces); Pay the application fee . After this last step, the applicant will receive an email confirming their submitted application. The selection process is based on the analysis of academic and professional curriculum. The members of the Admissions’ Jury Panel may decide to hold an interview with all or some applicants - face-to-face or videoconference.
@@ -916,6 +836,73 @@
   </si>
   <si>
     <t>Average Faithfulness score</t>
+  </si>
+  <si>
+    <t>How is the academic 1st year of the postgraduate program in marketing intelligence structured across the fall and spring semesters?</t>
+  </si>
+  <si>
+    <t>Document 1:
+Postgraduate Program In Marketing Intelligence postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Brand Management Mandatory Quarterly 3,5 Digital Marketing &amp; E-Commerce Mandatory Semester 7,5 Marketing Strategy and Innovation Mandatory Semester 7,5 Applied Network Analysis Elective Semester 7,5 Business Intelligence I Elective Semester 7,5 Business Process Management Elective Semester 7,5 Data Privacy, Security and Ethics Elective Quarterly 4 Data Science for Marketing Elective Semester 7,5 Descriptive Analytics in Marketing Elective Semester 7,5 Digital Analytics Elective Semester 7,5 Experimental Design Elective Quarterly 4 Information Management Systems Elective Quarterly 3,5 Information Technologies Services Management Elective Quarterly 4 Social Network Analysis Elective Quarterly 3,5 Transformação Digital Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
+Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '428feedc-5620-4302-81f4-1deaa9a8c17a', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}
+Document 2:
+Postgraduate Program In Marketing Intelligence postgraduate Second Semester 1 st year - Spring Semester Course Units Type Duration ECTS Consumer Behavior Insights Mandatory Semester 7,5 Market Research Mandatory Semester 7,5 Marketing Engineering and Analytics Mandatory Semester 7,5 Big Data for Marketing Elective Semester 7,5 Business Intelligence II Elective Semester 7,5 Customer Relationship Management Systems Elective Semester 7,5 Data Visualization Elective Semester 7,5 Data-driven decision making Elective Quarterly 4 Digital Transformation Elective Quarterly 3,5 Generative AI Applied to Marketing Elective Quarterly 3,5 Knowledge Management Elective Quarterly 3,5 Machine Learning in Marketing Elective Semester 7,5 Predictive Analytics in Marketing Elective Semester 7,5 Process Mining Powered By Nokia Elective Semester 7,5 Sampling Theory and Methods Elective Semester 7,5 Search Engine Optimization Elective Quarterly 4 Social Media Analytics Elective Semester 7,5 UX Research Elective Semester 7,5 Course UnitKeywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
+Metadata: {'course_name': 'Postgraduate Program In Marketing Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'a6aa08de-fcf1-4fc1-bcf9-a0e33a29f898', 'source': 'postgraduate-program-in-marketing-intelligence_Study plan.txt'}</t>
+  </si>
+  <si>
+    <t>The first semester (Fall) typically includes mandatory courses such as Brand Management, Digital Marketing &amp; E-Commerce, Marketing Strategy and Innovation, Applied Network Analysis, Business Intelligence I, and Business Process Management. The second semester (Spring) includes courses like Consumer Behavior Insights, Market Research, Marketing Engineering and Analytics, Big Data for Marketing, Business Intelligence II, Customer Relationship Management Systems, Data Visualization, Data-driven decision making, Digital Transformation, Generative AI Applied to Marketing, Knowledge Management, Machine Learning in Marketing, Predictive Analytics in Marketing, Process Mining Powered By Nokia, Sampling Theory and Methods, Search Engine Optimization, and UX Research.</t>
+  </si>
+  <si>
+    <t>Document 1:
+Postgraduate Program In Geospatial Data Science postgraduate Admissions and fees
+NOVA IMS is looking for excellent students who have the potential to become good technical staff and excellent managers. Qualities such as maturity, determination and motivation, both in the academic path as well in a professional career, are some of the required attributes. 3 rd Application phase From March 10 th and April 10 th , 2025. Admissions' Requirements The applicants to the Postgraduate in Geographical Sciences and Information Systems should hold a relevant bachelor's degree, or equivalent, in Statistics and Information Management, Geography, Economics, Engineering, Computer Sciences, Physics, Mathematics, Architecture, Urban and Regional Planning, or in other relevant scientific fields to be approved by the Scientific Council of NOVA IMS.We accept applications from those: Holding higher level conferred on the 1 st cycle of studies (undergraduates) under the Bologna legislation, by an adherent European country; Holding a foreign academic degree, approved by the Scientific Council of NOVA IMS, for achieving undergraduates' goals; Holding a relevant academic, professional and scientific curriculum, approved by the Scientific Council of NOVA IMS, for being able to conduct this study . How to Apply and Selection Process To apply, you need to access the NOVA IMS' Applications Portal and follow these steps: Fill in the form available in the user area, namely : Personal, academic and professional background; Upload your Curriculum Vitae (this is the only mandatory document for the application). Although it is not necessary to attach any other documents, the applicant has the option of including other documents that they consider relevant to enrich their application, such as a certificate of completion of their Bachelor's and/or Master's degree. Please note that if you are admitted, you will need to submit your Bachelor's and/or Master's degree completion certificate, or a certificate of attendance if you have not yet completed your degree, within one month; Choose the ; Present the goals and motivation for applying to the (limit 1,000 characters, including spaces); Pay the application fee . After this last step, the applicant will receive an email confirming their submitted application. The selection process is based on the analysis of academic and professional curriculum. The members of the Admissions’ Jury Panel may decide to hold an interview with all or some applicants - face-to-face or videoconference.
+Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '299e7384-fbf4-4cb3-9553-bd51c74bedea', 'section': 'Admissions and fees'}
+Document 2:
+Postgraduate Program In Geospatial Data Science postgraduate Introduction
+The Postgraduate in Geospatial Data Science provides the necessary skills for the analysis, modeling, and visualization of geographic information , and aims to train professionals for the role of artificial intelligence, programming, and data mining in the development of solutions to challenges and societal problems in the public and private sectors. This is developed in collaboration with UNIGIS , an international network that brings together the best schools in Geographic Information Systems and Science and it gives access to the Geospatial Intelligence (GEOINT) certificate accredited by the United States Geospatial Intelligence Foundation (USGIF). This Postgraduate lasts two semesters, taught in b-learning or e-learning formats , and it gives access to the Master Degree in Geographic Information Systems and Science . The applications for this are open between March 10 th and April 10 th , 2025. Accredited by United States Geospatial Intelligence Foundation Partner Entity UNIGIS Format E-Learning and B-Learning Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date September 2025 Who is it for? The Postgraduate in Geospatial Data Science aims to train managers and staff able to analyze, modeling, and visualize geographic information in environments with large amounts of data. This is taught in Portuguese and aims at everyone from Portuguese-speaking African countries but also Portugal, Brazil, Timor, and Portuguese communities all over the world, who is interested in continuing their studies by getting a Postgraduate diploma and/or a master's degree in a Portuguese university.
+Metadata: {'course_name': 'Postgraduate Program In Geospatial Data Science', 'degree': 'postgraduate', 'doc_type': 'main_info', 'id': '13898ac4-a1ec-49d9-9c29-50854d300c9c', 'section': 'Introduction'}</t>
+  </si>
+  <si>
+    <t>What are the necessary relevant bachelor's degree I need to have in order to apply for the postgraduate program in geospatial data science?</t>
+  </si>
+  <si>
+    <t>You can hold a relevant bachelor's degree in Statistics and Information Management, Geography, Economics, Engineering, Computer Sciences, Physics, Mathematics, Architecture, Urban and Regional Planning, or in other relevant scientific fields to be approved by the Scientific Council of NOVA IMS.</t>
+  </si>
+  <si>
+    <t>How many ECTS are allocated to Big Data Analytics for Business in the postgraduate in digital enterprise management?</t>
+  </si>
+  <si>
+    <t>Big Data Analytics for Business has 4 ECTS.</t>
+  </si>
+  <si>
+    <t>How much does the entry exams subjects value to enter the Bachelors in Data Science?</t>
+  </si>
+  <si>
+    <t>The entry exam subjects value is 50%.</t>
+  </si>
+  <si>
+    <t>Business Process Analyst; Business Analyst; Data Analyst; Information Manager; Specialist in Analytical Marketing; Specialist in Data Science applied to Management; Specialist in Decision Support Systems. Technical and Managerial Positions in Public Administration.</t>
+  </si>
+  <si>
+    <t>Yes, the program will provide you with hands-on skills to work with data in your current role.</t>
+  </si>
+  <si>
+    <t>Scientific concepts, methods and key geospatial technologies, including image processing and remote sensing, geographic information science, informatics and processes analytical tools.</t>
+  </si>
+  <si>
+    <t>Unfortunately, I do not have information on the entry requirements for the postgraduate program in culinary. Please refer to the official website or contact NOVA IMS directly for further information</t>
+  </si>
+  <si>
+    <t>What are the entry requeirements for the postgraduate program in culinary?</t>
+  </si>
+  <si>
+    <t>To register in the postgraduate program in digital transformation, you need to:
+1. Access the NOVA IMS' Applications Portal
+2. Fill in the form available in the user area, namely: 
+   - Personal, academic and professional background;
+   - Upload your Curriculum Vitae (this is the only mandatory document for the application)
+3. Present the goals and motivation for applying to the program (limit 1,000 characters, including spaces);
+4. Pay the application fee;
+5. Submit your Bachelor's and/or Master's degree completion certificate, or a certificate of attendance if you have not yet completed your degree, within one month after admission.</t>
   </si>
 </sst>
 </file>
@@ -937,6 +924,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -988,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -998,11 +986,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1347,16 +1337,16 @@
       <c r="D2">
         <v>86.421492099761963</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1364,823 +1354,806 @@
       <c r="D3">
         <v>76.023055076599121</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>82.600244998931885</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>81.331305503845215</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>81.184403657913208</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>84.615090370178223</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8">
         <v>62.937645196914673</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9">
         <v>49.371238231658943</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>60.146466970443733</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="7">
+        <v>90.146466970443697</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>56.114741802215583</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>50.413238763809197</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>79.771500110626221</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D14">
         <v>64.647564172744751</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
+      <c r="E14" s="5">
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>62.359193563461297</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>55.857076406478882</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>64.237340688705444</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>53.530916929245002</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>66.977064609527602</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>66.977064609527602</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>116.6221511363983</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.22499999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>110.4785470962524</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>75.015712976455688</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>92.578536510467529</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.72500000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>96.15778660774231</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>72.650268793106079</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>75.755941867828369</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>83.244328737258911</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="7">
+        <v>80.309600114822388</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>111.7436573505402</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4">
+        <v>90.766051769256592</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>101.34697508811951</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.77499999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D33">
+        <v>120.32299470901491</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.77499999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="4">
-        <v>77.365998268127441</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="D34" s="7">
+        <v>109.3500123023987</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="4">
-        <v>80.309600114822388</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <v>111.7436573505402</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="4">
-        <v>90.766051769256592</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33">
-        <v>101.34697508811951</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.77499999999999991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34">
-        <v>120.32299470901491</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.77499999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="4">
-        <v>109.3500123023987</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
+      <c r="D35">
+        <v>83.495852708816528</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D36">
-        <v>83.495852708816528</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.5</v>
+        <v>37.14427661895752</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>37.14427661895752</v>
-      </c>
-      <c r="E37" s="6">
+        <v>54.676629781723022</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D38">
-        <v>54.676629781723022</v>
-      </c>
-      <c r="E38" s="6">
+        <v>68.09928297996521</v>
+      </c>
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>68.09928297996521</v>
-      </c>
-      <c r="E39" s="6">
+        <v>45.76873517036438</v>
+      </c>
+      <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D40">
-        <v>45.76873517036438</v>
-      </c>
-      <c r="E40" s="6">
+        <v>52.498475074768074</v>
+      </c>
+      <c r="E40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D41">
-        <v>52.498475074768074</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
+        <v>109.4114017486572</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D42">
-        <v>109.4114017486572</v>
-      </c>
-      <c r="E42" s="6">
+        <v>120.7653434276581</v>
+      </c>
+      <c r="E42" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D43">
-        <v>120.7653434276581</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
+        <v>105.0964341163635</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D44">
-        <v>105.0964341163635</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0.39999999999999997</v>
+        <v>62.896596431732178</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>62.896596431732178</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0.7</v>
+        <v>91.778853893280029</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>91.778853893280029</v>
-      </c>
-      <c r="E46" s="6">
+        <v>59.767812013626099</v>
+      </c>
+      <c r="E46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D47">
-        <v>59.767812013626099</v>
-      </c>
-      <c r="E47" s="6">
+        <v>106.6506609916687</v>
+      </c>
+      <c r="E47" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D48">
-        <v>106.6506609916687</v>
-      </c>
-      <c r="E48" s="6">
+        <v>125.7885663509369</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D49">
-        <v>125.7885663509369</v>
-      </c>
-      <c r="E49" s="6">
+        <v>85.104190111160278</v>
+      </c>
+      <c r="E49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>85.104190111160278</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51">
         <v>80.120517015457153</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E50" s="5">
         <v>1</v>
       </c>
     </row>

--- a/model/src/rag_no_prompting_medium_Llama1B_results.xlsx
+++ b/model/src/rag_no_prompting_medium_Llama1B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02689A3-81A8-421F-8EDF-C2CAE0CA9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABF60B-F95B-4511-B336-0FAC0E5E5215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,6 +2155,12 @@
       </c>
       <c r="E50" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f>AVERAGE(D1:D50)</f>
+        <v>80.426996678722148</v>
       </c>
     </row>
   </sheetData>
